--- a/figure.xlsx
+++ b/figure.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kagawaverif-my.sharepoint.com/personal/s21t317_kagawa-u_ac_jp/Documents/デスクトップ/MyFolder/研究室/年末発表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D066CA252ABDACC10488B1114D3B673EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B29B9C-3EB3-4F01-90D6-1A5C106CE924}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4D066CA252ABDACC10488B1114D3B673EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B7F60E7-7FA1-4F94-A52C-49A8264E1344}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>2級</t>
   </si>
@@ -79,6 +80,15 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>文字音声単語親密度</t>
+  </si>
+  <si>
+    <t>音声単語親密度</t>
+  </si>
+  <si>
+    <t>文字単語新密度</t>
   </si>
 </sst>
 </file>
@@ -1301,6 +1311,824 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>レベル別 単語親密度 平均</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>文字音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>文字単語新密度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60AC-41B7-BFDF-E91FAB8A2956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>文字音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>文字単語新密度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60AC-41B7-BFDF-E91FAB8A2956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>文字音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>文字単語新密度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-60AC-41B7-BFDF-E91FAB8A2956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>文字音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>文字単語新密度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-60AC-41B7-BFDF-E91FAB8A2956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>文字音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>文字単語新密度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-60AC-41B7-BFDF-E91FAB8A2956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>文字音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>文字単語新密度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-60AC-41B7-BFDF-E91FAB8A2956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>文字音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>文字単語新密度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-60AC-41B7-BFDF-E91FAB8A2956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>文字音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音声単語親密度</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>文字単語新密度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-60AC-41B7-BFDF-E91FAB8A2956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1042520623"/>
+        <c:axId val="1042515343"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1042520623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042515343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1042515343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042520623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1341,7 +2169,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1896,6 +3280,51 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A4BBA0-1D97-680D-9C9F-640306C96439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2163,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2486,4 +3915,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F50698-FEF7-4324-96AF-0068C7BB3A3E}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>5.24</v>
+      </c>
+      <c r="C2">
+        <v>5.37</v>
+      </c>
+      <c r="D2">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C3">
+        <v>5.32</v>
+      </c>
+      <c r="D3">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>5.2</v>
+      </c>
+      <c r="C4">
+        <v>5.35</v>
+      </c>
+      <c r="D4">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C5">
+        <v>5.39</v>
+      </c>
+      <c r="D5">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C6">
+        <v>5.29</v>
+      </c>
+      <c r="D6">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>5.16</v>
+      </c>
+      <c r="C7">
+        <v>5.31</v>
+      </c>
+      <c r="D7">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>5.16</v>
+      </c>
+      <c r="C8">
+        <v>5.35</v>
+      </c>
+      <c r="D8">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>5.17</v>
+      </c>
+      <c r="C9">
+        <v>5.34</v>
+      </c>
+      <c r="D9">
+        <v>5.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>